--- a/Results.xlsx
+++ b/Results.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Polynomials" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Quick sort" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Merge sort" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Merge + Radix" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -646,11 +646,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43665624"/>
-        <c:axId val="19309039"/>
+        <c:axId val="67945796"/>
+        <c:axId val="95631459"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43665624"/>
+        <c:axId val="67945796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19309039"/>
+        <c:crossAx val="95631459"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19309039"/>
+        <c:axId val="95631459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +723,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43665624"/>
+        <c:crossAx val="67945796"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3477,11 +3477,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="9116441"/>
-        <c:axId val="10925578"/>
+        <c:axId val="9544968"/>
+        <c:axId val="43738608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9116441"/>
+        <c:axId val="9544968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3509,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10925578"/>
+        <c:crossAx val="43738608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3517,7 +3517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10925578"/>
+        <c:axId val="43738608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3545,7 +3545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9116441"/>
+        <c:crossAx val="9544968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3608,7 +3608,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Merge sort'!$B$1</c:f>
+              <c:f>'Merge + Radix'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3658,7 +3658,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Merge sort'!$A$2:$A$101</c:f>
+              <c:f>'Merge + Radix'!$A$2:$A$101</c:f>
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
@@ -3966,7 +3966,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Merge sort'!$B$2:$B$101</c:f>
+              <c:f>'Merge + Radix'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4280,7 +4280,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Merge sort'!$C$1</c:f>
+              <c:f>'Merge + Radix'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4330,7 +4330,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Merge sort'!$A$2:$A$101</c:f>
+              <c:f>'Merge + Radix'!$A$2:$A$101</c:f>
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
@@ -4638,309 +4638,309 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Merge sort'!$C$2:$C$101</c:f>
+              <c:f>'Merge + Radix'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.38</c:v>
+                  <c:v>8.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.79</c:v>
+                  <c:v>9.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.45</c:v>
+                  <c:v>14.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.29</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.83</c:v>
+                  <c:v>23.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.78</c:v>
+                  <c:v>29.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.15</c:v>
+                  <c:v>33.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>121.34</c:v>
+                  <c:v>38.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>136.2</c:v>
+                  <c:v>43.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117.75</c:v>
+                  <c:v>49.56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.68</c:v>
+                  <c:v>53.76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>113.51</c:v>
+                  <c:v>58.19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>125.16</c:v>
+                  <c:v>62.83</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132.38</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>143.06</c:v>
+                  <c:v>75.39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>151.77</c:v>
+                  <c:v>77.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>160.32</c:v>
+                  <c:v>82.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>170.09</c:v>
+                  <c:v>87.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>179.44</c:v>
+                  <c:v>91.47</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187.57</c:v>
+                  <c:v>95.54</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>196.21</c:v>
+                  <c:v>100.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>205.7</c:v>
+                  <c:v>105.35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>215.26</c:v>
+                  <c:v>109.96</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>225.32</c:v>
+                  <c:v>114.66</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>233.78</c:v>
+                  <c:v>119.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>242.72</c:v>
+                  <c:v>124.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>252.59</c:v>
+                  <c:v>128.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>263.36</c:v>
+                  <c:v>133.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>273.96</c:v>
+                  <c:v>138.52</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>281.92</c:v>
+                  <c:v>143.59</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>290.68</c:v>
+                  <c:v>149.57</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>302.93</c:v>
+                  <c:v>152.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>310.16</c:v>
+                  <c:v>156.73</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>320.53</c:v>
+                  <c:v>162.6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>331.4</c:v>
+                  <c:v>168.13</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>339.56</c:v>
+                  <c:v>172.81</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>348.29</c:v>
+                  <c:v>175.13</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>358.54</c:v>
+                  <c:v>179.72</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>366.06</c:v>
+                  <c:v>184.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>378.49</c:v>
+                  <c:v>192.78</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>388.96</c:v>
+                  <c:v>198.48</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>395.78</c:v>
+                  <c:v>199.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>403.96</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>415.23</c:v>
+                  <c:v>207.75</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>429.36</c:v>
+                  <c:v>215.41</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>435.66</c:v>
+                  <c:v>219.04</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>442.85</c:v>
+                  <c:v>222.36</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>452.17</c:v>
+                  <c:v>228.57</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>463.06</c:v>
+                  <c:v>231.78</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>470.63</c:v>
+                  <c:v>236.56</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>480.09</c:v>
+                  <c:v>241.29</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>490.79</c:v>
+                  <c:v>245.83</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>500.21</c:v>
+                  <c:v>251.96</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>513.56</c:v>
+                  <c:v>257.06</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>517.51</c:v>
+                  <c:v>263.96</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>528.75</c:v>
+                  <c:v>268.8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>534.91</c:v>
+                  <c:v>272.2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>565.16</c:v>
+                  <c:v>279.49</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>568.05</c:v>
+                  <c:v>284.35</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>570.14</c:v>
+                  <c:v>289.53</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>576.79</c:v>
+                  <c:v>293.18</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>583.56</c:v>
+                  <c:v>299.58</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>600.69</c:v>
+                  <c:v>300.11</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>603.9</c:v>
+                  <c:v>304.77</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>611.25</c:v>
+                  <c:v>310.72</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>620.86</c:v>
+                  <c:v>315.71</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>638.85</c:v>
+                  <c:v>321.32</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>644.24</c:v>
+                  <c:v>324.12</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>650.69</c:v>
+                  <c:v>326.2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>658.85</c:v>
+                  <c:v>330.29</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>668.45</c:v>
+                  <c:v>336.02</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>680.25</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>686.82</c:v>
+                  <c:v>344.87</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>695.51</c:v>
+                  <c:v>349.38</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>705.62</c:v>
+                  <c:v>353.92</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>715.98</c:v>
+                  <c:v>358.22</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>724.16</c:v>
+                  <c:v>362.86</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>733.98</c:v>
+                  <c:v>368.06</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>744.61</c:v>
+                  <c:v>372.93</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>754.48</c:v>
+                  <c:v>377.72</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>768.68</c:v>
+                  <c:v>382.78</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>778.7</c:v>
+                  <c:v>391.27</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>800.74</c:v>
+                  <c:v>396.28</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>848.91</c:v>
+                  <c:v>417.76</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>853.25</c:v>
+                  <c:v>420.54</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>864.03</c:v>
+                  <c:v>422.3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>863.31</c:v>
+                  <c:v>427.35</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>874.41</c:v>
+                  <c:v>433.39</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>882.56</c:v>
+                  <c:v>438.53</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>892.29</c:v>
+                  <c:v>442.02</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>931.4</c:v>
+                  <c:v>447.2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>929.89</c:v>
+                  <c:v>453.18</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>934.2</c:v>
+                  <c:v>455.61</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>934.69</c:v>
+                  <c:v>461.58</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>943.62</c:v>
+                  <c:v>468.12</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>970.81</c:v>
+                  <c:v>474.6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>978.31</c:v>
+                  <c:v>486.1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>982.92</c:v>
+                  <c:v>488.96</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>984.42</c:v>
+                  <c:v>493.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4952,7 +4952,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Merge sort'!$D$1</c:f>
+              <c:f>'Merge + Radix'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5002,7 +5002,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Merge sort'!$A$2:$A$101</c:f>
+              <c:f>'Merge + Radix'!$A$2:$A$101</c:f>
               <c:strCache>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
@@ -5310,309 +5310,309 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Merge sort'!$D$2:$D$101</c:f>
+              <c:f>'Merge + Radix'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.35</c:v>
+                  <c:v>6.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.6</c:v>
+                  <c:v>9.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.69</c:v>
+                  <c:v>14.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.95</c:v>
+                  <c:v>19.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.69</c:v>
+                  <c:v>24.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.16</c:v>
+                  <c:v>28.48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.6</c:v>
+                  <c:v>33.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120.57</c:v>
+                  <c:v>37.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>135.66</c:v>
+                  <c:v>42.61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>111.72</c:v>
+                  <c:v>49.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.12</c:v>
+                  <c:v>52.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112.92</c:v>
+                  <c:v>57.67</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>123.12</c:v>
+                  <c:v>61.59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131.1</c:v>
+                  <c:v>68.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>141.81</c:v>
+                  <c:v>74.42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150.43</c:v>
+                  <c:v>76.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>159.72</c:v>
+                  <c:v>81.54</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>168.64</c:v>
+                  <c:v>86.55</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>177.33</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>186.64</c:v>
+                  <c:v>94.69</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>195.32</c:v>
+                  <c:v>99.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>204.96</c:v>
+                  <c:v>104.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213.95</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>223.65</c:v>
+                  <c:v>113.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>232.67</c:v>
+                  <c:v>118.13</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>242.36</c:v>
+                  <c:v>122.81</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>251.89</c:v>
+                  <c:v>127.31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>264.25</c:v>
+                  <c:v>132.49</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>272.84</c:v>
+                  <c:v>137.22</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>282.11</c:v>
+                  <c:v>141.64</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>290.02</c:v>
+                  <c:v>146.88</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>302.42</c:v>
+                  <c:v>150.67</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>308.85</c:v>
+                  <c:v>155.52</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>318.14</c:v>
+                  <c:v>161.25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>328.66</c:v>
+                  <c:v>166.14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>337.32</c:v>
+                  <c:v>170.87</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>346.64</c:v>
+                  <c:v>174.18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>356.02</c:v>
+                  <c:v>177.89</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>364.48</c:v>
+                  <c:v>183.05</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>379.3</c:v>
+                  <c:v>191.8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>387.52</c:v>
+                  <c:v>194.34</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>394.25</c:v>
+                  <c:v>197.27</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>403.26</c:v>
+                  <c:v>201.67</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>412.67</c:v>
+                  <c:v>206.07</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>425.24</c:v>
+                  <c:v>211.91</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>431.79</c:v>
+                  <c:v>215.8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>441.64</c:v>
+                  <c:v>220.77</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>450.14</c:v>
+                  <c:v>226.18</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>229.96</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>234.28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>238.94</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>243.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>249.86</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>255.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>261.47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>265.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>268.83</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>274.37</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>281.73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>285.38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>291.11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>293.69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>297.76</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>302.35</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>307.22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>312.32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>315.91</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>319.48</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>323.14</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>328.28</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>331.69</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>336.92</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>341.24</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>347.1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>350.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>354.74</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>359.67</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>364.77</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>370.29</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>374.33</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>379.48</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>386.56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>390.51</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>419.77</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>422.43</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>427.81</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>433.14</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>437.58</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>442.07</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>448.06</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>452.16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>455.64</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>460.96</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>467.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>477.25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>487.96</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>498.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>509.97</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>515.36</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>526.81</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>532.95</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>554.14</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>558.93</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>562.53</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>572.33</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>581.08</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>589.69</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>598.83</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>608.27</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>617.75</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>641.41</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>647.43</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>655.34</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>666.9</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>675.38</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>683.21</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>692.77</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>701.18</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>712.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>720.26</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>730.13</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>745.11</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>747.26</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>764.98</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>776.52</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>792.21</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>851.24</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>856.08</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>868.93</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>863.13</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>872.38</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>883.27</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>892.7</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>924.69</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>931.52</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>923.36</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>934.31</c:v>
-                </c:pt>
                 <c:pt idx="95">
-                  <c:v>943.77</c:v>
+                  <c:v>468.24</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>964.85</c:v>
+                  <c:v>474.55</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>974.4</c:v>
+                  <c:v>478.82</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>980.71</c:v>
+                  <c:v>489.71</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>984.63</c:v>
+                  <c:v>494.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5627,11 +5627,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="76882624"/>
-        <c:axId val="64411454"/>
+        <c:axId val="22898433"/>
+        <c:axId val="17059237"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76882624"/>
+        <c:axId val="22898433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5659,7 +5659,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64411454"/>
+        <c:crossAx val="17059237"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5667,7 +5667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64411454"/>
+        <c:axId val="17059237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5704,7 +5704,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76882624"/>
+        <c:crossAx val="22898433"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7919,7 +7919,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7950,10 +7950,10 @@
         <v>0.09</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7965,10 +7965,10 @@
         <v>21.9</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>15.38</v>
+        <v>8.05</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>15.35</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7980,10 +7980,10 @@
         <v>36.28</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>30.79</v>
+        <v>9.32</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>30.6</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7995,10 +7995,10 @@
         <v>56.72</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>46.45</v>
+        <v>14.14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>45.69</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8010,10 +8010,10 @@
         <v>67</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>60.29</v>
+        <v>18.8</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>59.95</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8025,10 +8025,10 @@
         <v>86.86</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>75.83</v>
+        <v>23.81</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>75.69</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8040,10 +8040,10 @@
         <v>101.99</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>90.78</v>
+        <v>29.02</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>90.16</v>
+        <v>28.48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,10 +8055,10 @@
         <v>127.94</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>106.15</v>
+        <v>33.79</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>105.6</v>
+        <v>33.29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8070,10 +8070,10 @@
         <v>161.04</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>121.34</v>
+        <v>38.35</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>120.57</v>
+        <v>37.96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8085,10 +8085,10 @@
         <v>157.45</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>136.2</v>
+        <v>43.73</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>135.66</v>
+        <v>42.61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8100,10 +8100,10 @@
         <v>181.58</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>117.75</v>
+        <v>49.56</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>111.72</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8115,10 +8115,10 @@
         <v>224.02</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>103.68</v>
+        <v>53.76</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>103.12</v>
+        <v>52.61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8130,10 +8130,10 @@
         <v>301.08</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>113.51</v>
+        <v>58.19</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>112.92</v>
+        <v>57.67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8145,10 +8145,10 @@
         <v>310.43</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>125.16</v>
+        <v>62.83</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>123.12</v>
+        <v>61.59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,10 +8160,10 @@
         <v>287.9</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>132.38</v>
+        <v>69</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>131.1</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,10 +8175,10 @@
         <v>337.59</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>143.06</v>
+        <v>75.39</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>141.81</v>
+        <v>74.42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8190,10 +8190,10 @@
         <v>390.69</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>151.77</v>
+        <v>77.64</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>150.43</v>
+        <v>76.72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,10 +8205,10 @@
         <v>351.65</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>160.32</v>
+        <v>82.72</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>159.72</v>
+        <v>81.54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8220,10 +8220,10 @@
         <v>409.8</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>170.09</v>
+        <v>87.92</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>168.64</v>
+        <v>86.55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,10 +8235,10 @@
         <v>402.03</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>179.44</v>
+        <v>91.47</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>177.33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8250,10 +8250,10 @@
         <v>421.39</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>187.57</v>
+        <v>95.54</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>186.64</v>
+        <v>94.69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8265,10 +8265,10 @@
         <v>461.91</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>196.21</v>
+        <v>100.4</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>195.32</v>
+        <v>99.4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8280,10 +8280,10 @@
         <v>479.2</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>205.7</v>
+        <v>105.35</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>204.96</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8295,10 +8295,10 @@
         <v>469</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>215.26</v>
+        <v>109.96</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>213.95</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,10 +8310,10 @@
         <v>497.29</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>225.32</v>
+        <v>114.66</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>223.65</v>
+        <v>113.55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8325,10 +8325,10 @@
         <v>536.7</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>233.78</v>
+        <v>119.32</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>232.67</v>
+        <v>118.13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8340,10 +8340,10 @@
         <v>544.13</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>242.72</v>
+        <v>124.56</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>242.36</v>
+        <v>122.81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8355,10 +8355,10 @@
         <v>621.56</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>252.59</v>
+        <v>128.73</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>251.89</v>
+        <v>127.31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8370,10 +8370,10 @@
         <v>631.7</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>263.36</v>
+        <v>133.8</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>264.25</v>
+        <v>132.49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8385,10 +8385,10 @@
         <v>605.22</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>273.96</v>
+        <v>138.52</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>272.84</v>
+        <v>137.22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,10 +8400,10 @@
         <v>659.47</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>281.92</v>
+        <v>143.59</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>282.11</v>
+        <v>141.64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8415,10 +8415,10 @@
         <v>660.24</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>290.68</v>
+        <v>149.57</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>290.02</v>
+        <v>146.88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8430,10 +8430,10 @@
         <v>714.42</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>302.93</v>
+        <v>152.6</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>302.42</v>
+        <v>150.67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,10 +8445,10 @@
         <v>694.44</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>310.16</v>
+        <v>156.73</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>308.85</v>
+        <v>155.52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8460,10 +8460,10 @@
         <v>774.06</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>320.53</v>
+        <v>162.6</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>318.14</v>
+        <v>161.25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8475,10 +8475,10 @@
         <v>738.43</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>331.4</v>
+        <v>168.13</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>328.66</v>
+        <v>166.14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8490,10 +8490,10 @@
         <v>851.27</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>339.56</v>
+        <v>172.81</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>337.32</v>
+        <v>170.87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8505,10 +8505,10 @@
         <v>839.99</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>348.29</v>
+        <v>175.13</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>346.64</v>
+        <v>174.18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8520,10 +8520,10 @@
         <v>854.36</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>358.54</v>
+        <v>179.72</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>356.02</v>
+        <v>177.89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8535,10 +8535,10 @@
         <v>898.75</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>366.06</v>
+        <v>184.2</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>364.48</v>
+        <v>183.05</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8550,10 +8550,10 @@
         <v>1014.24</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>378.49</v>
+        <v>192.78</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>379.3</v>
+        <v>191.8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,10 +8565,10 @@
         <v>1003.68</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>388.96</v>
+        <v>198.48</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>387.52</v>
+        <v>194.34</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8580,10 +8580,10 @@
         <v>989.01</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>395.78</v>
+        <v>199.1</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>394.25</v>
+        <v>197.27</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8595,10 +8595,10 @@
         <v>1111.3</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>403.96</v>
+        <v>203</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>403.26</v>
+        <v>201.67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8610,10 +8610,10 @@
         <v>1045.73</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>415.23</v>
+        <v>207.75</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>412.67</v>
+        <v>206.07</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8625,10 +8625,10 @@
         <v>1089.51</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>429.36</v>
+        <v>215.41</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>425.24</v>
+        <v>211.91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8640,10 +8640,10 @@
         <v>1135.12</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>435.66</v>
+        <v>219.04</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>431.79</v>
+        <v>215.8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8655,10 +8655,10 @@
         <v>1096.8</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>442.85</v>
+        <v>222.36</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>441.64</v>
+        <v>220.77</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8670,10 +8670,10 @@
         <v>1107.29</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>452.17</v>
+        <v>228.57</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>450.14</v>
+        <v>226.18</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8685,10 +8685,10 @@
         <v>1221.08</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>463.06</v>
+        <v>231.78</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>460.96</v>
+        <v>229.96</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8700,10 +8700,10 @@
         <v>1218.54</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>470.63</v>
+        <v>236.56</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>467.7</v>
+        <v>234.28</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8715,10 +8715,10 @@
         <v>1178.28</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>480.09</v>
+        <v>241.29</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>477.25</v>
+        <v>238.94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,10 +8730,10 @@
         <v>1232.35</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>490.79</v>
+        <v>245.83</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>487.96</v>
+        <v>243.25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8745,10 +8745,10 @@
         <v>1283.68</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>500.21</v>
+        <v>251.96</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>498.5</v>
+        <v>249.86</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8760,10 +8760,10 @@
         <v>1394.96</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>513.56</v>
+        <v>257.06</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>509.97</v>
+        <v>255.2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,10 +8775,10 @@
         <v>1316.76</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>517.51</v>
+        <v>263.96</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>515.36</v>
+        <v>261.47</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8790,10 +8790,10 @@
         <v>1359.36</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>528.75</v>
+        <v>268.8</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>526.81</v>
+        <v>265.6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8805,10 +8805,10 @@
         <v>1363.58</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>534.91</v>
+        <v>272.2</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>532.95</v>
+        <v>268.83</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8820,10 +8820,10 @@
         <v>1419.03</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>565.16</v>
+        <v>279.49</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>554.14</v>
+        <v>274.37</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,10 +8835,10 @@
         <v>1472.41</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>568.05</v>
+        <v>284.35</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>558.93</v>
+        <v>281.73</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8850,10 +8850,10 @@
         <v>1438.98</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>570.14</v>
+        <v>289.53</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>562.53</v>
+        <v>285.38</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8865,10 +8865,10 @@
         <v>1522.77</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>576.79</v>
+        <v>293.18</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>572.33</v>
+        <v>291.11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8880,10 +8880,10 @@
         <v>1515.54</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>583.56</v>
+        <v>299.58</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>581.08</v>
+        <v>293.69</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8895,10 +8895,10 @@
         <v>1615.04</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>600.69</v>
+        <v>300.11</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>589.69</v>
+        <v>297.76</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8910,10 +8910,10 @@
         <v>1617.73</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>603.9</v>
+        <v>304.77</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>598.83</v>
+        <v>302.35</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,10 +8925,10 @@
         <v>1561.31</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>611.25</v>
+        <v>310.72</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>608.27</v>
+        <v>307.22</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,10 +8940,10 @@
         <v>1766.33</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>620.86</v>
+        <v>315.71</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>617.75</v>
+        <v>312.32</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8955,10 +8955,10 @@
         <v>1748.48</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>638.85</v>
+        <v>321.32</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>634</v>
+        <v>315.91</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8970,10 +8970,10 @@
         <v>1712</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>644.24</v>
+        <v>324.12</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>641.41</v>
+        <v>319.48</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8985,10 +8985,10 @@
         <v>1656.46</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>650.69</v>
+        <v>326.2</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>647.43</v>
+        <v>323.14</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9000,10 +9000,10 @@
         <v>1553.25</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>658.85</v>
+        <v>330.29</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>655.34</v>
+        <v>328.28</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9015,10 +9015,10 @@
         <v>1583.22</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>668.45</v>
+        <v>336.02</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>666.9</v>
+        <v>331.69</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9030,10 +9030,10 @@
         <v>1656.48</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>680.25</v>
+        <v>340</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>675.38</v>
+        <v>336.92</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9045,10 +9045,10 @@
         <v>1733.32</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>686.82</v>
+        <v>344.87</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>683.21</v>
+        <v>341.24</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9060,10 +9060,10 @@
         <v>1756.68</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>695.51</v>
+        <v>349.38</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>692.77</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9075,10 +9075,10 @@
         <v>1786.39</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>705.62</v>
+        <v>353.92</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>701.18</v>
+        <v>350.25</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9090,10 +9090,10 @@
         <v>1855.49</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>715.98</v>
+        <v>358.22</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>712.8</v>
+        <v>354.74</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9105,10 +9105,10 @@
         <v>1833.68</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>724.16</v>
+        <v>362.86</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>720.26</v>
+        <v>359.67</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9120,10 +9120,10 @@
         <v>1873.08</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>733.98</v>
+        <v>368.06</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>730.13</v>
+        <v>364.77</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9135,10 +9135,10 @@
         <v>1811.41</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>744.61</v>
+        <v>372.93</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>745.11</v>
+        <v>370.29</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9150,10 +9150,10 @@
         <v>1624.63</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>754.48</v>
+        <v>377.72</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>747.26</v>
+        <v>374.33</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9165,10 +9165,10 @@
         <v>1610.65</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>768.68</v>
+        <v>382.78</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>764.98</v>
+        <v>379.48</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9180,10 +9180,10 @@
         <v>1627.19</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>778.7</v>
+        <v>391.27</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>776.52</v>
+        <v>386.56</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9195,10 +9195,10 @@
         <v>1643.49</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>800.74</v>
+        <v>396.28</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>792.21</v>
+        <v>390.51</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9210,10 +9210,10 @@
         <v>1659.91</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>848.91</v>
+        <v>417.76</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>851.24</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9225,10 +9225,10 @@
         <v>1680.92</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>853.25</v>
+        <v>420.54</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>856.08</v>
+        <v>419.77</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9240,10 +9240,10 @@
         <v>1700.31</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>864.03</v>
+        <v>422.3</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>868.93</v>
+        <v>422.43</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9255,10 +9255,10 @@
         <v>1731.86</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>863.31</v>
+        <v>427.35</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>863.13</v>
+        <v>427.81</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9270,10 +9270,10 @@
         <v>1756.36</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>874.41</v>
+        <v>433.39</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>872.38</v>
+        <v>433.14</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9285,10 +9285,10 @@
         <v>1781.73</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>882.56</v>
+        <v>438.53</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>883.27</v>
+        <v>437.58</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9300,10 +9300,10 @@
         <v>1799.53</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>892.29</v>
+        <v>442.02</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>892.7</v>
+        <v>442.07</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9315,10 +9315,10 @@
         <v>1830.04</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>931.4</v>
+        <v>447.2</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>924.69</v>
+        <v>448.06</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9330,10 +9330,10 @@
         <v>1959.87</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>929.89</v>
+        <v>453.18</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>931.52</v>
+        <v>452.16</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,10 +9345,10 @@
         <v>2241.07</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>934.2</v>
+        <v>455.61</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>923.36</v>
+        <v>455.64</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9360,10 +9360,10 @@
         <v>1990.74</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>934.69</v>
+        <v>461.58</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>934.31</v>
+        <v>460.96</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9375,10 +9375,10 @@
         <v>1892.85</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>943.62</v>
+        <v>468.12</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>943.77</v>
+        <v>468.24</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9390,10 +9390,10 @@
         <v>2141.52</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>970.81</v>
+        <v>474.6</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>964.85</v>
+        <v>474.55</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9405,10 +9405,10 @@
         <v>2268.78</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>978.31</v>
+        <v>486.1</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>974.4</v>
+        <v>478.82</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9420,10 +9420,10 @@
         <v>2259.5</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>982.92</v>
+        <v>488.96</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>980.71</v>
+        <v>489.71</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9435,10 +9435,10 @@
         <v>2355.29</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>984.42</v>
+        <v>493.98</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>984.63</v>
+        <v>494.54</v>
       </c>
     </row>
   </sheetData>
